--- a/tabela_de_riscos.xlsx
+++ b/tabela_de_riscos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>Fase</t>
   </si>
@@ -109,6 +109,9 @@
     <t>R20</t>
   </si>
   <si>
+    <t>R21</t>
+  </si>
+  <si>
     <t>Definição de requisitos da contratação insuficientes ou indevidos.</t>
   </si>
   <si>
@@ -160,6 +163,9 @@
     <t>Inadimplência da contratada.</t>
   </si>
   <si>
+    <t>Falta de Capacitação sobre o Uso de Inteligência Artificial</t>
+  </si>
+  <si>
     <t>Baixa participação/adesão ao registro de preços.</t>
   </si>
   <si>
@@ -220,6 +226,9 @@
     <t>Decorrente inadequação dos parâmetros de fiscalização e de gestão contratual definidos no edital e anexos.</t>
   </si>
   <si>
+    <t>Oportunidades de melhoria na rotina de contratações do órgão não são aproveitadas devido à inabilidade de compreender e utilizar soluções baseadas em IA.</t>
+  </si>
+  <si>
     <t>Risco de imagem para a Central; não atingimento dos objetivos de centralização dos procedimentos de licitação e de padronização da estratégia da contratação, resultando em perdas de economia de escala, visto a baixa participação dos órgãos e entidades da APF.</t>
   </si>
   <si>
@@ -278,6 +287,9 @@
   </si>
   <si>
     <t>Dificuldade acentuada para a realização da fiscalização e da gestão contratual junto à contratada, mediante os parâmetros exigíveis.</t>
+  </si>
+  <si>
+    <t>Permanência de processos ineficientes, desperdício de recursos públicos e perda de competitividade na inovação e automação das atividades de contratação.</t>
   </si>
 </sst>
 </file>
@@ -635,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,13 +687,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -701,13 +713,13 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -727,13 +739,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -753,13 +765,13 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -779,13 +791,13 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -805,13 +817,13 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -831,13 +843,13 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -857,13 +869,13 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -883,13 +895,13 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -909,13 +921,13 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -935,13 +947,13 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -961,13 +973,13 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -987,13 +999,13 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -1013,13 +1025,13 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -1039,13 +1051,13 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -1065,13 +1077,13 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -1091,13 +1103,13 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -1117,13 +1129,13 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -1143,13 +1155,13 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -1169,13 +1181,13 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1185,6 +1197,32 @@
       </c>
       <c r="H21">
         <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
